--- a/ダイスバトラー仕様書.xlsx
+++ b/ダイスバトラー仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22907"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="508" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E807B082-54B6-4D69-A8CF-E512BDBEAFFF}"/>
+  <xr:revisionPtr revIDLastSave="873" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAF6A10A-461B-4172-B1B6-A9351D144CEE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
   <si>
     <t>シート名</t>
   </si>
@@ -63,7 +63,7 @@
     <t>各種ゲーム画面の大まかな配置物と機能</t>
   </si>
   <si>
-    <t>リザルト画面のイメージ画像が固まっていない</t>
+    <t>リザルト画面のイメージ画像が固まっていない。バトル画面の説明部分に追記</t>
   </si>
   <si>
     <t>システム</t>
@@ -72,7 +72,7 @@
     <t>メインのゲームシステム</t>
   </si>
   <si>
-    <t>現状大枠のみルールが決まっているため細かい部分の調整必要かつ画像の追加予定</t>
+    <t>戦闘の流れ、編成タブに表示されるもの、操作説明を追記</t>
   </si>
   <si>
     <t>キャラ</t>
@@ -315,13 +315,16 @@
     <t>システムへ</t>
   </si>
   <si>
-    <t>オレンジ：編成しているキャラのタブ</t>
+    <t>オレンジ：編成タブ</t>
+  </si>
+  <si>
+    <t>・編成したキャラはここに表示される</t>
   </si>
   <si>
     <t>・キャラ毎にアイコン、キャラの出せるサイコロの出目、HP、必殺技ゲージある</t>
   </si>
   <si>
-    <t>・投げるキャラを選択等はここで行う</t>
+    <t>・投げるキャラを選択等はここで行う。アイコンのタップで選択カーソルが出る</t>
   </si>
   <si>
     <t>・左上矢印をタップでタブは閉じる</t>
@@ -336,30 +339,60 @@
     <t>大まかなゲームの進行</t>
   </si>
   <si>
+    <t>戦闘の流れ</t>
+  </si>
+  <si>
     <t>1.複数個サイコロをフィールド上にばらまかれる</t>
   </si>
   <si>
+    <t>①フィールド上にサイコロを配置</t>
+  </si>
+  <si>
     <t>2.プレイヤー側がキャラを選択</t>
   </si>
   <si>
+    <t>②プレイヤーが投擲するキャラを選択</t>
+  </si>
+  <si>
     <t>3.プレイヤーがサイコロ(キャラ)を投げて範囲内の同じ目のサイコロが消える</t>
   </si>
   <si>
+    <t>③キャラを投擲</t>
+  </si>
+  <si>
     <t>4.消費したサイコロに応じて敵にダメージ</t>
   </si>
   <si>
+    <t>④投擲されたキャラの範囲内で同じ出目のサイコロを消す</t>
+  </si>
+  <si>
     <t>5.プレイヤーが行動が終わった時点で残っているサイコロの数だけ敵が攻撃</t>
   </si>
   <si>
+    <t>消えたサイコロの数で敵に与えるダメージ、必殺技ゲージの上昇量変化</t>
+  </si>
+  <si>
+    <t>⑤プレイヤーが全てのキャラを投擲するまで②～④を繰り返す</t>
+  </si>
+  <si>
     <t>まだ決まっていない点</t>
   </si>
   <si>
+    <t>（②で選択され投擲済みのキャラは選択不可）</t>
+  </si>
+  <si>
     <t>・敵味方の行動順をどうするか</t>
   </si>
   <si>
+    <t>⑥敵からフィールド上に残っているサイコロ分のダメージ</t>
+  </si>
+  <si>
     <t>現状プレイヤーがサイコロを振れる回数が決まっていてその回数分振り終わったら敵のターンになるか</t>
   </si>
   <si>
+    <t>⑦キャラか敵が全滅するまで①～⑥を繰り返す</t>
+  </si>
+  <si>
     <t>キャラクターや敵に素早さのステータスを持たせてステータスの高いキャラから行動するか</t>
   </si>
   <si>
@@ -382,6 +415,147 @@
   </si>
   <si>
     <t>どのようなボーナスが適切か？</t>
+  </si>
+  <si>
+    <t>キャラクターのステータス(キャラ毎に用意されるもの)</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>・キャラアイコン</t>
+  </si>
+  <si>
+    <t>それぞれのどのようなキャラが分かるアイコン
+編成画面のキャラ一覧や編成時のバトル、ホーム画面の使用</t>
+  </si>
+  <si>
+    <t>・HP</t>
+  </si>
+  <si>
+    <t>バトル中0になると行動不能(サイコロとして選択不可)になる
+各キャラで上限値を変える予定</t>
+  </si>
+  <si>
+    <t>・必殺技</t>
+  </si>
+  <si>
+    <t>キャラそれぞれの固有技。バトル中ゲージがMaxになると使用可能
+バトル開始時は0。バトル中フィールド上のサイコロを消すたび上昇</t>
+  </si>
+  <si>
+    <t>・サイコロの目</t>
+  </si>
+  <si>
+    <t>キャラの出せる数。基本は1～6がある普通のサイコロ
+各キャラで変えることで出目を偏らせられる
+ステージ毎に出やすい出目などを作ることで有利な編成などを用意したいため</t>
+  </si>
+  <si>
+    <t>・範囲</t>
+  </si>
+  <si>
+    <t>バトル時使用する範囲
+プレイヤーがフィールドにキャラを投げた際この範囲内かつ同じ出目サイコロを消す。サイコロが消えた数で相手へのダメージや必殺技ゲージの上昇が行われる</t>
+  </si>
+  <si>
+    <t>バトルの操作、システム説明</t>
+  </si>
+  <si>
+    <t>（イメージはゲーム画面参照）</t>
+  </si>
+  <si>
+    <t>バトル画面時編成タブに表示されるもの</t>
+  </si>
+  <si>
+    <t>選択枠</t>
+  </si>
+  <si>
+    <t>（キャラ選択時表示）</t>
+  </si>
+  <si>
+    <t>一度に編成できるキャラは3体</t>
+  </si>
+  <si>
+    <t>（調整で数の変更有かも）</t>
+  </si>
+  <si>
+    <t>実機の画面サイズや視認性によっては</t>
+  </si>
+  <si>
+    <t>キャラアイコン</t>
+  </si>
+  <si>
+    <t>HP、必殺技はゲージのみではなく</t>
+  </si>
+  <si>
+    <t>数値を表示する</t>
+  </si>
+  <si>
+    <t>いれるなら実数値ではなく％表示</t>
+  </si>
+  <si>
+    <t>サイコロの目</t>
+  </si>
+  <si>
+    <t>サイコロの目は数字ではなく</t>
+  </si>
+  <si>
+    <t>イメージ図のようにグラフィックで出したい</t>
+  </si>
+  <si>
+    <t>HPゲージ</t>
+  </si>
+  <si>
+    <t>必殺技ゲージ</t>
+  </si>
+  <si>
+    <t>投擲前画面</t>
+  </si>
+  <si>
+    <t>プレイヤーがキャラを投げる前はステージ下部に表示される</t>
+  </si>
+  <si>
+    <t>表示されているサイコロは編成タブを開いている際は隠れる</t>
+  </si>
+  <si>
+    <t>投擲の操作は</t>
+  </si>
+  <si>
+    <t>サイコロを飛ばしたい方向にフリック</t>
+  </si>
+  <si>
+    <t>現在使用しているキャラが分かるように</t>
+  </si>
+  <si>
+    <t>飛距離はフリックのスピードで変化</t>
+  </si>
+  <si>
+    <t>アイコンをどこかに表示</t>
+  </si>
+  <si>
+    <t>（操作が狙った方向に飛ばない、</t>
+  </si>
+  <si>
+    <t>飛距離の調整が難しいなら</t>
+  </si>
+  <si>
+    <t>投擲前のサイコロの目は一番小さい数字</t>
+  </si>
+  <si>
+    <t>モンストみたいな引っ張り操作にする）</t>
+  </si>
+  <si>
+    <t>投擲操作後ランダムに上部の目が変わり</t>
+  </si>
+  <si>
+    <t>転がっているように演出する</t>
+  </si>
+  <si>
+    <t>範囲はサイコロを中心に円形に表示</t>
+  </si>
+  <si>
+    <t>半透明にする</t>
   </si>
 </sst>
 </file>
@@ -681,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -704,6 +878,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,16 +915,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -4628,6 +4829,1890 @@
         <a:xfrm rot="2874650" flipH="1">
           <a:off x="14344650" y="14258925"/>
           <a:ext cx="133350" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECB75AB-5FB7-459E-B148-B68A307D6542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="8677275"/>
+          <a:ext cx="1076325" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2924175</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA20CE44-84A0-4AAE-95C3-A63E83EB6BDB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DECB75AB-5FB7-459E-B148-B68A307D6542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="10591800"/>
+          <a:ext cx="1295400" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="71AB48"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="507D32"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889B9625-4B63-4200-A357-8BEE9FECDEA7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA20CE44-84A0-4AAE-95C3-A63E83EB6BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="10839450"/>
+          <a:ext cx="1304925" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E9BB69-515E-4492-A062-C4BC3A131DE3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{889B9625-4B63-4200-A357-8BEE9FECDEA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="10077450"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50CDFF84-86E9-4FFC-86C4-D185257B925C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{77E9BB69-515E-4492-A062-C4BC3A131DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="10067925"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AE163F-DF28-4D08-9208-1C13C96F80E1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50CDFF84-86E9-4FFC-86C4-D185257B925C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="10067925"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15126F8A-E9DD-4ADE-B103-6FEAA83B1C93}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F6AE163F-DF28-4D08-9208-1C13C96F80E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="10067925"/>
+          <a:ext cx="314325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A44B7E-B4E7-4573-A02D-A1A1BB2AA764}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15126F8A-E9DD-4ADE-B103-6FEAA83B1C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="10058400"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3238500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3562350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2019CC9-A0F9-405D-A4B2-D1D3DB0B24AB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C0A44B7E-B4E7-4573-A02D-A1A1BB2AA764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="10067925"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3019425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4733925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5A7D8B-5C22-45AD-A8AE-8C91B755698D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2019CC9-A0F9-405D-A4B2-D1D3DB0B24AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5153105">
+          <a:off x="6105525" y="8610600"/>
+          <a:ext cx="171450" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3648075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5495925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA524215-E348-4BCC-945C-5FD26FD4FB76}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A5A7D8B-5C22-45AD-A8AE-8C91B755698D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5153105">
+          <a:off x="7124700" y="9172575"/>
+          <a:ext cx="171450" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3076575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4733925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4834099-374D-4461-B9B6-B84AC842AD93}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA524215-E348-4BCC-945C-5FD26FD4FB76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5368170">
+          <a:off x="6134100" y="9858375"/>
+          <a:ext cx="171450" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3076575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4733925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5C6EC1-C57F-46F7-B6DB-D200949BC331}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F4834099-374D-4461-B9B6-B84AC842AD93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5368170">
+          <a:off x="6134100" y="10086975"/>
+          <a:ext cx="171450" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8F21B1-F5A8-4D43-8D54-5849A07D0655}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3C5C6EC1-C57F-46F7-B6DB-D200949BC331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="8496300"/>
+          <a:ext cx="1362075" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:srgbClr val="000000"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4714875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F271B117-AA74-4DE1-9BE0-EE3EDBC3B435}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E8F21B1-F5A8-4D43-8D54-5849A07D0655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5323618">
+          <a:off x="5934075" y="8448675"/>
+          <a:ext cx="171450" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3914775</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7781EB01-E7A8-437E-BAE8-B2E9A2D283DA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F271B117-AA74-4DE1-9BE0-EE3EDBC3B435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="13125450"/>
+          <a:ext cx="2276475" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="B0CAE8"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="94BAE3"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="5B9BD4"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:srgbClr val="000000"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2562225</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55666026-0B45-4A34-8787-4204F15AE7F4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7781EB01-E7A8-437E-BAE8-B2E9A2D283DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="12868275"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3095625</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4733925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771C0ED3-B36E-415A-B633-A91CE14458F3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{55666026-0B45-4A34-8787-4204F15AE7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5368170">
+          <a:off x="6143625" y="12230100"/>
+          <a:ext cx="171450" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3357562</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4738687</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFFFB7E-DAD3-443E-B2D1-F4CBF62580A5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{771C0ED3-B36E-415A-B633-A91CE14458F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5111791">
+          <a:off x="6276975" y="12963525"/>
+          <a:ext cx="171450" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1065D52-FBB5-4F16-B282-6DD7DC7360C7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DDFFFB7E-DAD3-443E-B2D1-F4CBF62580A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="13373100"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3833812</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4814887</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19368B1F-016B-4461-B2BE-5C9BBB90F8CB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1065D52-FBB5-4F16-B282-6DD7DC7360C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5677195">
+          <a:off x="6553200" y="14011275"/>
+          <a:ext cx="171450" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -5059,15 +7144,15 @@
   <dimension ref="B3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="70.75" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="20.25" customHeight="1">
@@ -5077,7 +7162,7 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5091,7 +7176,7 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="19">
         <v>43961</v>
       </c>
       <c r="E4" s="3"/>
@@ -5103,7 +7188,7 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="19">
         <v>43961</v>
       </c>
       <c r="E5" s="3"/>
@@ -5115,8 +7200,8 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28">
-        <v>43961</v>
+      <c r="D6" s="19">
+        <v>43963</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -5129,21 +7214,21 @@
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="28">
-        <v>43961</v>
+      <c r="D7" s="19">
+        <v>43963</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.25" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
@@ -5155,7 +7240,7 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
@@ -5183,8 +7268,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -5253,22 +7338,22 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="2:12">
       <c r="I9" s="5"/>
@@ -5286,21 +7371,21 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="6:14">
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="6:14">
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="6:14">
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="6:14">
       <c r="I20" s="2"/>
@@ -5321,32 +7406,32 @@
       </c>
     </row>
     <row r="26" spans="6:14">
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="L26" s="16" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="L26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="18"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="6:14">
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="6:14">
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="30" spans="6:14">
       <c r="N30" t="s">
@@ -5357,19 +7442,19 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="18"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
     </row>
     <row r="34" spans="6:15">
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="27"/>
       <c r="O34" t="s">
         <v>39</v>
       </c>
@@ -5378,9 +7463,9 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="37" spans="6:15">
       <c r="N37" t="s">
@@ -5388,21 +7473,21 @@
       </c>
     </row>
     <row r="40" spans="6:15">
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M40" s="17"/>
-      <c r="N40" s="18"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="24"/>
     </row>
     <row r="41" spans="6:15">
-      <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
     </row>
     <row r="42" spans="6:15">
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="24"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
     </row>
     <row r="44" spans="6:15">
       <c r="L44" t="s">
@@ -5436,13 +7521,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E030BD-09A1-49DB-98C0-5439C582166B}">
   <dimension ref="B2:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="14.25" customHeight="1">
@@ -5709,6 +7794,11 @@
         <v>97</v>
       </c>
     </row>
+    <row r="91" spans="10:22" ht="14.25" customHeight="1">
+      <c r="J91" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="98" spans="4:4" ht="14.25" customHeight="1">
       <c r="D98" t="s">
         <v>41</v>
@@ -5716,12 +7806,12 @@
     </row>
     <row r="100" spans="4:4" ht="14.25" customHeight="1">
       <c r="D100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="14.25" customHeight="1">
       <c r="D101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5736,109 +7826,646 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7782CEEF-B8A7-4E1D-8517-8FBEA7778FE5}">
-  <dimension ref="B2:B24"/>
+  <dimension ref="B2:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="4" spans="2:13">
+      <c r="B4" s="31" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+      <c r="C4" s="33"/>
+      <c r="F4" s="31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="36" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="C5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="36" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="C6" s="35"/>
+      <c r="F6" s="36" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+      <c r="C7" s="35"/>
+      <c r="F7" s="36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="36" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="C8" s="35"/>
+      <c r="F8" s="36" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="37" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="C9" s="39"/>
+      <c r="F9" s="36" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="F10" s="36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="31" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="C11" s="33"/>
+      <c r="F11" s="36" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="36" t="s">
         <v>116</v>
       </c>
+      <c r="C12" s="35"/>
+      <c r="F12" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="F13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="35"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="35"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="35"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="39"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="33"/>
+    </row>
+    <row r="27" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B27" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B28" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B29" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B30" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B31" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="49.5" customHeight="1">
+      <c r="B32" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="34"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="36"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="35"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="36"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="35"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="E44" s="35"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="36"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="35"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="35"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="35"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="35"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="36"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="35"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="35"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="35"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="36"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="35"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="36"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="35"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="36"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="35"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="36"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="35"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="36"/>
+      <c r="C61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="35"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="36"/>
+      <c r="C62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="36"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="35"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="36"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="35"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="35"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="35"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="35"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="35"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="36"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="35"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="36"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="35"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="36"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="36"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="35"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="36"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="35"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="36"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="35"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="37"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="目次!B2" display="目次へ" xr:uid="{2194CB56-2CE2-4801-BA1C-0B79710D7563}"/>
+    <hyperlink ref="B36" location="ゲーム画面!D67" display="（イメージはゲーム画面参照）" xr:uid="{027D20F2-A6E3-4915-AA69-2FA0DDDE06D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ダイスバトラー仕様書.xlsx
+++ b/ダイスバトラー仕様書.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1462" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BCF67B9-0AF7-48AB-B2AD-974EFAB6D36E}"/>
+  <xr:revisionPtr revIDLastSave="1474" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5DE4EF81-AF83-4D61-B1BA-F31B611F9EC4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="261">
   <si>
     <t>シート名</t>
   </si>
@@ -72,7 +72,7 @@
     <t>メインのゲームシステム</t>
   </si>
   <si>
-    <t>バトルシステムについてそれぞれを追記</t>
+    <t>サイコロ投擲部分一部修正</t>
   </si>
   <si>
     <t>キャラ</t>
@@ -555,25 +555,31 @@
     <t>アイコンをどこかに表示</t>
   </si>
   <si>
+    <t>→タップしてフリックするまでの間パワーは段々と上る</t>
+  </si>
+  <si>
+    <t>マックスまで上がると段々と下がるを繰り返す</t>
+  </si>
+  <si>
+    <t>投擲前のサイコロの目は一番小さい数字</t>
+  </si>
+  <si>
+    <t>投擲操作後ランダムに上部の目が変わり</t>
+  </si>
+  <si>
+    <t>転がっているように演出する</t>
+  </si>
+  <si>
     <t>（操作が狙った方向に飛ばない、</t>
   </si>
   <si>
     <t>飛距離の調整が難しいなら</t>
   </si>
   <si>
-    <t>投擲前のサイコロの目は一番小さい数字</t>
+    <t>キャラ範囲は自サイコロを中心に円形に表示</t>
   </si>
   <si>
     <t>モンストみたいな引っ張り操作にする）</t>
-  </si>
-  <si>
-    <t>投擲操作後ランダムに上部の目が変わり</t>
-  </si>
-  <si>
-    <t>転がっているように演出する</t>
-  </si>
-  <si>
-    <t>キャラ範囲は自サイコロを中心に円形に表示</t>
   </si>
   <si>
     <t>半透明にする</t>
@@ -1129,7 +1135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1189,6 +1195,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,9 +1225,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -16264,9 +16272,9 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="70.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="20.25" customHeight="1">
@@ -16329,7 +16337,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="19">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -16382,8 +16390,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -16452,22 +16460,22 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="2:12">
       <c r="I9" s="5"/>
@@ -16485,21 +16493,21 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="6:14">
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="6:14">
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="6:14">
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="6:14">
       <c r="I20" s="2"/>
@@ -16520,32 +16528,32 @@
       </c>
     </row>
     <row r="26" spans="6:14">
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-      <c r="L26" s="37" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="L26" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
     </row>
     <row r="27" spans="6:14">
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="6:14">
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="30" spans="6:14">
       <c r="N30" t="s">
@@ -16556,19 +16564,19 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="L33" s="37" t="s">
+      <c r="L33" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="39"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
     </row>
     <row r="34" spans="6:15">
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="42"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="45"/>
       <c r="O34" t="s">
         <v>39</v>
       </c>
@@ -16577,9 +16585,9 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="48"/>
     </row>
     <row r="37" spans="6:15">
       <c r="N37" t="s">
@@ -16587,21 +16595,21 @@
       </c>
     </row>
     <row r="40" spans="6:15">
-      <c r="L40" s="37" t="s">
+      <c r="L40" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
     </row>
     <row r="41" spans="6:15">
-      <c r="L41" s="40"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="42"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="45"/>
     </row>
     <row r="42" spans="6:15">
-      <c r="L42" s="43"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="45"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="48"/>
     </row>
     <row r="44" spans="6:15">
       <c r="L44" t="s">
@@ -16641,7 +16649,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="14.25" customHeight="1">
@@ -16942,14 +16950,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7782CEEF-B8A7-4E1D-8517-8FBEA7778FE5}">
   <dimension ref="B2:K263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="72.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -16972,10 +16980,10 @@
         <v>103</v>
       </c>
       <c r="C5" s="26"/>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="38" t="s">
         <v>105</v>
       </c>
     </row>
@@ -16984,7 +16992,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="37" t="s">
         <v>107</v>
       </c>
       <c r="H6" s="2"/>
@@ -16994,7 +17002,7 @@
         <v>108</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="37" t="s">
         <v>109</v>
       </c>
       <c r="H7" s="2"/>
@@ -17012,26 +17020,26 @@
         <v>111</v>
       </c>
       <c r="C9" s="30"/>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="37" t="s">
         <v>112</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="37" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="D11" s="2"/>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="37" t="s">
         <v>116</v>
       </c>
       <c r="F11" s="2"/>
@@ -17040,7 +17048,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="D12" s="2"/>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="37" t="s">
         <v>117</v>
       </c>
       <c r="F12" s="2"/>
@@ -17053,7 +17061,7 @@
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="37" t="s">
         <v>119</v>
       </c>
       <c r="F13" s="2"/>
@@ -17077,7 +17085,7 @@
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="37" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="2"/>
@@ -17090,11 +17098,11 @@
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="37" t="s">
         <v>124</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="39" t="s">
         <v>125</v>
       </c>
       <c r="I16" s="2"/>
@@ -17108,7 +17116,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="39" t="s">
         <v>127</v>
       </c>
       <c r="I17" s="2"/>
@@ -17506,7 +17514,7 @@
       <c r="H66" s="26"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="49" t="s">
         <v>170</v>
       </c>
       <c r="C67" s="2"/>
@@ -17519,7 +17527,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="50" t="s">
         <v>172</v>
       </c>
       <c r="C68" s="2"/>
@@ -17530,7 +17538,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="50" t="s">
         <v>173</v>
       </c>
       <c r="C69" s="2"/>
@@ -17543,12 +17551,10 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="27" t="s">
-        <v>175</v>
-      </c>
+      <c r="B70" s="27"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -17559,7 +17565,7 @@
       <c r="B71" s="27"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -17576,7 +17582,9 @@
       <c r="H72" s="26"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="27"/>
+      <c r="B73" s="27" t="s">
+        <v>177</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -17585,10 +17593,12 @@
       <c r="H73" s="26"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="27"/>
+      <c r="B74" s="27" t="s">
+        <v>178</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -17596,10 +17606,12 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="27"/>
+      <c r="B75" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -17626,7 +17638,7 @@
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -17640,7 +17652,7 @@
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -17657,7 +17669,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -17671,7 +17683,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -17685,7 +17697,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -17699,7 +17711,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -17713,7 +17725,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -17727,7 +17739,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -17738,12 +17750,12 @@
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -17754,7 +17766,7 @@
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -17768,7 +17780,7 @@
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -17782,12 +17794,12 @@
     </row>
     <row r="91" spans="2:11">
       <c r="B91" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -17801,7 +17813,7 @@
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -17815,7 +17827,7 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -17829,7 +17841,7 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -17843,7 +17855,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -17881,7 +17893,7 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -17895,7 +17907,7 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -17909,7 +17921,7 @@
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -18114,7 +18126,7 @@
       <c r="B117" s="27"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -18128,7 +18140,7 @@
       <c r="B118" s="27"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -18142,7 +18154,7 @@
       <c r="B119" s="27"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -18154,11 +18166,11 @@
     </row>
     <row r="120" spans="2:11">
       <c r="B120" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -18170,7 +18182,7 @@
     </row>
     <row r="121" spans="2:11">
       <c r="B121" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -18184,7 +18196,7 @@
     </row>
     <row r="122" spans="2:11">
       <c r="B122" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -18198,7 +18210,7 @@
     </row>
     <row r="123" spans="2:11">
       <c r="B123" s="27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -18212,11 +18224,11 @@
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -18228,11 +18240,11 @@
     </row>
     <row r="125" spans="2:11">
       <c r="B125" s="27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -18244,11 +18256,11 @@
     </row>
     <row r="126" spans="2:11">
       <c r="B126" s="27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -18260,11 +18272,11 @@
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -18326,7 +18338,7 @@
       <c r="B132" s="27"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -18340,7 +18352,7 @@
       <c r="B133" s="27"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -18354,7 +18366,7 @@
       <c r="B134" s="27"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -18462,7 +18474,7 @@
     </row>
     <row r="145" spans="2:10">
       <c r="B145" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
@@ -18475,7 +18487,7 @@
     </row>
     <row r="146" spans="2:10">
       <c r="B146" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -18499,7 +18511,7 @@
     </row>
     <row r="148" spans="2:10">
       <c r="B148" s="27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -18512,7 +18524,7 @@
     </row>
     <row r="149" spans="2:10">
       <c r="B149" s="27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -18525,7 +18537,7 @@
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="27" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -18560,7 +18572,7 @@
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -18573,11 +18585,11 @@
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -18588,7 +18600,7 @@
     </row>
     <row r="155" spans="2:10">
       <c r="B155" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -18601,7 +18613,7 @@
     </row>
     <row r="156" spans="2:10">
       <c r="B156" s="27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -18614,7 +18626,7 @@
     </row>
     <row r="157" spans="2:10">
       <c r="B157" s="27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -18627,11 +18639,11 @@
     </row>
     <row r="158" spans="2:10">
       <c r="B158" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -18677,7 +18689,7 @@
       <c r="B162" s="27"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -18866,7 +18878,7 @@
       <c r="B179" s="27"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -18890,7 +18902,7 @@
       <c r="B181" s="27"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -18903,7 +18915,7 @@
       <c r="B182" s="27"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -18958,7 +18970,7 @@
     </row>
     <row r="187" spans="2:10">
       <c r="B187" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -19171,7 +19183,7 @@
       <c r="B206" s="27"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -19184,7 +19196,7 @@
       <c r="B207" s="27"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -19208,7 +19220,7 @@
       <c r="B209" s="27"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -19221,7 +19233,7 @@
       <c r="B210" s="27"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -19353,7 +19365,7 @@
     </row>
     <row r="224" spans="2:10">
       <c r="B224" s="22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C224" s="24"/>
     </row>
@@ -19363,19 +19375,19 @@
     </row>
     <row r="226" spans="2:5">
       <c r="B226" s="25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C226" s="26"/>
     </row>
     <row r="227" spans="2:5">
       <c r="B227" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C227" s="26"/>
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C228" s="26"/>
     </row>
@@ -19385,7 +19397,7 @@
     </row>
     <row r="230" spans="2:5">
       <c r="B230" s="27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C230" s="26"/>
     </row>
@@ -19395,19 +19407,19 @@
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C232" s="26"/>
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C233" s="26"/>
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C234" s="26"/>
     </row>
@@ -19417,7 +19429,7 @@
     </row>
     <row r="238" spans="2:5">
       <c r="B238" s="22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C238" s="23"/>
       <c r="D238" s="23"/>
@@ -19449,7 +19461,7 @@
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -19457,7 +19469,7 @@
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -19465,7 +19477,7 @@
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -19473,7 +19485,7 @@
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -19481,7 +19493,7 @@
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -19489,7 +19501,7 @@
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -19497,7 +19509,7 @@
     </row>
     <row r="249" spans="2:5">
       <c r="B249" s="27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -19505,7 +19517,7 @@
     </row>
     <row r="250" spans="2:5">
       <c r="B250" s="27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -19513,7 +19525,7 @@
     </row>
     <row r="251" spans="2:5">
       <c r="B251" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
